--- a/BOM and Pick and Place Files/REV X4/Digikey Parts.xlsx
+++ b/BOM and Pick and Place Files/REV X4/Digikey Parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5d13c61c60eae0c/Documents/Space center/Simulation-Main-Board/BOM and Pick and Place Files/REV X3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5d13c61c60eae0c/Documents/Space center/Simulation-Main-Board/BOM and Pick and Place Files/REV X4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABDACC10480A81D964B85ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{063CA8CE-90F3-4A69-87E9-96FF5A93006D}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABDACC10480A81D964B85ADE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{053CEEFD-359B-4B8E-A64C-B9114D3B9A09}"/>
   <bookViews>
-    <workbookView xWindow="57510" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Digikey Number</t>
   </si>
@@ -76,6 +76,36 @@
   </si>
   <si>
     <t>D101</t>
+  </si>
+  <si>
+    <t>SW1,SW2</t>
+  </si>
+  <si>
+    <t>2223-TS02-66-60-BK-160-LCR-D-ND</t>
+  </si>
+  <si>
+    <t>455-B9B-EH-A-ND</t>
+  </si>
+  <si>
+    <t>J97,J98</t>
+  </si>
+  <si>
+    <t>J13-25, J29-44</t>
+  </si>
+  <si>
+    <t>455-S3B-PH-KL-ND, or 455-B2B-PH-KL-ND</t>
+  </si>
+  <si>
+    <t>J5,J6,J7,J8,J9,J10,J11,J12</t>
+  </si>
+  <si>
+    <t>S9170-ND</t>
+  </si>
+  <si>
+    <t>455-B4B-EH-A-ND</t>
+  </si>
+  <si>
+    <t>J2,J3,J4,J85,J86,J87,J93,J94,J96</t>
   </si>
 </sst>
 </file>
@@ -131,6 +161,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,16 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,6 +531,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
